--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ACD/20/seed2/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ACD/20/seed2/result_data_KNN.xlsx
@@ -471,7 +471,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-22.206</v>
+        <v>-21.92</v>
       </c>
       <c r="B3" t="n">
         <v>4.03</v>
@@ -522,7 +522,7 @@
         <v>-15.25</v>
       </c>
       <c r="D6" t="n">
-        <v>-7.57</v>
+        <v>-7.897</v>
       </c>
     </row>
     <row r="7">
@@ -625,7 +625,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-21.636</v>
+        <v>-21.676</v>
       </c>
       <c r="B14" t="n">
         <v>4.04</v>
@@ -645,7 +645,7 @@
         <v>5.32</v>
       </c>
       <c r="C15" t="n">
-        <v>-13.842</v>
+        <v>-12.932</v>
       </c>
       <c r="D15" t="n">
         <v>-10.04</v>
@@ -653,7 +653,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-22.12</v>
+        <v>-22.085</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
@@ -690,7 +690,7 @@
         <v>-15.14</v>
       </c>
       <c r="D18" t="n">
-        <v>-8.710000000000001</v>
+        <v>-8.675999999999998</v>
       </c>
     </row>
     <row r="19">
@@ -704,7 +704,7 @@
         <v>-12.15</v>
       </c>
       <c r="D19" t="n">
-        <v>-8.168000000000001</v>
+        <v>-7.85</v>
       </c>
     </row>
     <row r="20">
@@ -723,13 +723,13 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-20.018</v>
+        <v>-20.216</v>
       </c>
       <c r="B21" t="n">
         <v>9.52</v>
       </c>
       <c r="C21" t="n">
-        <v>-12.878</v>
+        <v>-12.739</v>
       </c>
       <c r="D21" t="n">
         <v>-6.74</v>
@@ -743,7 +743,7 @@
         <v>8.81</v>
       </c>
       <c r="C22" t="n">
-        <v>-12.076</v>
+        <v>-12.5</v>
       </c>
       <c r="D22" t="n">
         <v>-6.8</v>
@@ -751,7 +751,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-20.286</v>
+        <v>-19.991</v>
       </c>
       <c r="B23" t="n">
         <v>7.87</v>
@@ -771,7 +771,7 @@
         <v>7.41</v>
       </c>
       <c r="C24" t="n">
-        <v>-11.328</v>
+        <v>-12.061</v>
       </c>
       <c r="D24" t="n">
         <v>-7.7</v>
@@ -779,7 +779,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-21.55</v>
+        <v>-21.839</v>
       </c>
       <c r="B25" t="n">
         <v>5.23</v>
@@ -793,7 +793,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-21.706</v>
+        <v>-21.737</v>
       </c>
       <c r="B26" t="n">
         <v>6.56</v>
@@ -813,7 +813,7 @@
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-12.662</v>
+        <v>-12.563</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -827,7 +827,7 @@
         <v>5.47</v>
       </c>
       <c r="C28" t="n">
-        <v>-12.782</v>
+        <v>-12.596</v>
       </c>
       <c r="D28" t="n">
         <v>-7.75</v>
@@ -835,7 +835,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.042</v>
+        <v>-21.279</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -928,7 +928,7 @@
         <v>-13.02</v>
       </c>
       <c r="D35" t="n">
-        <v>-7.696000000000001</v>
+        <v>-8.270999999999999</v>
       </c>
     </row>
     <row r="36">
@@ -939,7 +939,7 @@
         <v>9.84</v>
       </c>
       <c r="C36" t="n">
-        <v>-13.542</v>
+        <v>-13.045</v>
       </c>
       <c r="D36" t="n">
         <v>-9.050000000000001</v>
@@ -981,7 +981,7 @@
         <v>9.35</v>
       </c>
       <c r="C39" t="n">
-        <v>-12.954</v>
+        <v>-12.82</v>
       </c>
       <c r="D39" t="n">
         <v>-8.93</v>
@@ -989,7 +989,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-19.638</v>
+        <v>-19.934</v>
       </c>
       <c r="B40" t="n">
         <v>10.75</v>
@@ -1054,7 +1054,7 @@
         <v>-10.47</v>
       </c>
       <c r="D44" t="n">
-        <v>-7.798</v>
+        <v>-7.448</v>
       </c>
     </row>
     <row r="45">
@@ -1065,7 +1065,7 @@
         <v>5.73</v>
       </c>
       <c r="C45" t="n">
-        <v>-13.364</v>
+        <v>-12.678</v>
       </c>
       <c r="D45" t="n">
         <v>-7.87</v>
@@ -1096,7 +1096,7 @@
         <v>-11.84</v>
       </c>
       <c r="D47" t="n">
-        <v>-7.593999999999999</v>
+        <v>-7.494</v>
       </c>
     </row>
     <row r="48">
@@ -1107,7 +1107,7 @@
         <v>5.63</v>
       </c>
       <c r="C48" t="n">
-        <v>-11.556</v>
+        <v>-11.416</v>
       </c>
       <c r="D48" t="n">
         <v>-6.88</v>
@@ -1121,7 +1121,7 @@
         <v>4.95</v>
       </c>
       <c r="C49" t="n">
-        <v>-13.962</v>
+        <v>-12.884</v>
       </c>
       <c r="D49" t="n">
         <v>-9.210000000000001</v>
@@ -1138,7 +1138,7 @@
         <v>-14.51</v>
       </c>
       <c r="D50" t="n">
-        <v>-8.608000000000001</v>
+        <v>-8.683</v>
       </c>
     </row>
     <row r="51">
@@ -1152,7 +1152,7 @@
         <v>-13.17</v>
       </c>
       <c r="D51" t="n">
-        <v>-8.520000000000001</v>
+        <v>-8.093</v>
       </c>
     </row>
     <row r="52">
@@ -1163,21 +1163,21 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-10.85</v>
+        <v>-11.382</v>
       </c>
       <c r="D52" t="n">
-        <v>-7.678</v>
+        <v>-7.535000000000001</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-22.126</v>
+        <v>-21.977</v>
       </c>
       <c r="B53" t="n">
         <v>5.82</v>
       </c>
       <c r="C53" t="n">
-        <v>-12.584</v>
+        <v>-12.81</v>
       </c>
       <c r="D53" t="n">
         <v>-7.23</v>
@@ -1191,7 +1191,7 @@
         <v>6.01</v>
       </c>
       <c r="C54" t="n">
-        <v>-12.674</v>
+        <v>-12.348</v>
       </c>
       <c r="D54" t="n">
         <v>-8.01</v>
@@ -1208,7 +1208,7 @@
         <v>-15.79</v>
       </c>
       <c r="D55" t="n">
-        <v>-8.752000000000001</v>
+        <v>-8.451000000000001</v>
       </c>
     </row>
     <row r="56">
@@ -1227,16 +1227,16 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-21.622</v>
+        <v>-21.802</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-11.14</v>
+        <v>-11.657</v>
       </c>
       <c r="D57" t="n">
-        <v>-7.756</v>
+        <v>-8.013</v>
       </c>
     </row>
     <row r="58">
@@ -1250,12 +1250,12 @@
         <v>-15.6</v>
       </c>
       <c r="D58" t="n">
-        <v>-7.975999999999999</v>
+        <v>-8.407999999999998</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.504</v>
+        <v>-22.266</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1334,12 +1334,12 @@
         <v>-10.62</v>
       </c>
       <c r="D64" t="n">
-        <v>-8.141999999999999</v>
+        <v>-7.657000000000001</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-21.552</v>
+        <v>-21.484</v>
       </c>
       <c r="B65" t="n">
         <v>6.69</v>
@@ -1362,7 +1362,7 @@
         <v>-10.51</v>
       </c>
       <c r="D66" t="n">
-        <v>-7.958</v>
+        <v>-7.755000000000001</v>
       </c>
     </row>
     <row r="67">
@@ -1395,7 +1395,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.57</v>
+        <v>-21.484</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1415,7 +1415,7 @@
         <v>4.05</v>
       </c>
       <c r="C70" t="n">
-        <v>-11.348</v>
+        <v>-11.664</v>
       </c>
       <c r="D70" t="n">
         <v>-7.03</v>
@@ -1429,7 +1429,7 @@
         <v>4.58</v>
       </c>
       <c r="C71" t="n">
-        <v>-10.756</v>
+        <v>-11.081</v>
       </c>
       <c r="D71" t="n">
         <v>-7.44</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-21.11</v>
+        <v>-21.117</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1558,7 +1558,7 @@
         <v>-12.35</v>
       </c>
       <c r="D80" t="n">
-        <v>-7.666000000000001</v>
+        <v>-7.983</v>
       </c>
     </row>
     <row r="81">
@@ -1591,7 +1591,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-22.23</v>
+        <v>-22.259</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1600,7 +1600,7 @@
         <v>-13.03</v>
       </c>
       <c r="D83" t="n">
-        <v>-7.772000000000001</v>
+        <v>-8.218999999999999</v>
       </c>
     </row>
     <row r="84">
@@ -1639,7 +1639,7 @@
         <v>4.69</v>
       </c>
       <c r="C86" t="n">
-        <v>-13.452</v>
+        <v>-13.468</v>
       </c>
       <c r="D86" t="n">
         <v>-8.17</v>
@@ -1653,7 +1653,7 @@
         <v>5.81</v>
       </c>
       <c r="C87" t="n">
-        <v>-13.236</v>
+        <v>-13.462</v>
       </c>
       <c r="D87" t="n">
         <v>-8.869999999999999</v>
@@ -1681,7 +1681,7 @@
         <v>5.51</v>
       </c>
       <c r="C89" t="n">
-        <v>-13.692</v>
+        <v>-13.376</v>
       </c>
       <c r="D89" t="n">
         <v>-8.140000000000001</v>
@@ -1703,7 +1703,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-20.722</v>
+        <v>-20.744</v>
       </c>
       <c r="B91" t="n">
         <v>7.49</v>
@@ -1726,12 +1726,12 @@
         <v>-9.789999999999999</v>
       </c>
       <c r="D92" t="n">
-        <v>-7.140000000000001</v>
+        <v>-7.717999999999999</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.43</v>
+        <v>-21.508</v>
       </c>
       <c r="B93" t="n">
         <v>4.28</v>
@@ -1754,7 +1754,7 @@
         <v>-9.49</v>
       </c>
       <c r="D94" t="n">
-        <v>-7.708</v>
+        <v>-7.782999999999999</v>
       </c>
     </row>
     <row r="95">
@@ -1782,7 +1782,7 @@
         <v>-10.65</v>
       </c>
       <c r="D96" t="n">
-        <v>-7.176</v>
+        <v>-7.712000000000001</v>
       </c>
     </row>
     <row r="97">
@@ -1796,7 +1796,7 @@
         <v>-10.47</v>
       </c>
       <c r="D97" t="n">
-        <v>-7.774000000000001</v>
+        <v>-8.023999999999999</v>
       </c>
     </row>
     <row r="98">
@@ -1829,7 +1829,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-22.224</v>
+        <v>-22.323</v>
       </c>
       <c r="B100" t="n">
         <v>4.73</v>
@@ -1849,10 +1849,10 @@
         <v>8.42</v>
       </c>
       <c r="C101" t="n">
-        <v>-12.854</v>
+        <v>-12.375</v>
       </c>
       <c r="D101" t="n">
-        <v>-7.167999999999999</v>
+        <v>-7.659999999999999</v>
       </c>
     </row>
     <row r="102">
@@ -1871,7 +1871,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>-21.736</v>
+        <v>-22.072</v>
       </c>
       <c r="B103" t="n">
         <v>5.09</v>
